--- a/tests/testing_data_excel/testing_cli_2_wrong.xlsx
+++ b/tests/testing_data_excel/testing_cli_2_wrong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Desktop/Monash_University/FIT3162/FIT3162-Team21/tests/testing_data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF97EA3A-8FF2-5C44-B405-097F95DFF202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BC6EC2-9F46-6B4D-AFB0-0B4A8F1891D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{FB1C7B28-4A31-F649-BAA5-44837000E765}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16520" xr2:uid="{FB1C7B28-4A31-F649-BAA5-44837000E765}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>UFI</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>16/FEB/1999</t>
-  </si>
-  <si>
-    <t>12/MAY/1999</t>
-  </si>
-  <si>
-    <t>13/MAY/1999</t>
   </si>
 </sst>
 </file>
@@ -518,7 +512,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -737,134 +731,29 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="1">
-        <v>2001732</v>
-      </c>
-      <c r="B4" s="1">
-        <v>504391</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-38.059170000000002</v>
-      </c>
-      <c r="M4" s="1">
-        <v>147.55528000000001</v>
-      </c>
-      <c r="N4" s="1">
-        <v>15</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="1">
-        <v>27</v>
-      </c>
-      <c r="U4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="1">
-        <v>370</v>
-      </c>
-      <c r="W4" s="1">
-        <v>9</v>
-      </c>
-      <c r="X4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>392411</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="1">
-        <v>2001967</v>
-      </c>
-      <c r="B5" s="1">
-        <v>504391</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-38.15</v>
-      </c>
-      <c r="M5" s="1">
-        <v>147.42250000000001</v>
-      </c>
-      <c r="N5" s="1">
-        <v>15</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="1">
-        <v>32</v>
-      </c>
-      <c r="U5" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="1">
-        <v>370</v>
-      </c>
-      <c r="W5" s="1">
-        <v>9</v>
-      </c>
-      <c r="X5" s="1">
-        <v>3362</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>392419</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
